--- a/output/HYBRID/processing-hybrid.xlsx
+++ b/output/HYBRID/processing-hybrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\School\Master\Thesis\MasterThesis\output\HYBRID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529415B-B537-4DAA-AD2C-6F56AFBD943E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F9957-AD93-471E-948A-2E351B7736D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>I</t>
   </si>
@@ -107,34 +107,16 @@
     <t>1X+2X</t>
   </si>
   <si>
-    <t>NM = 500</t>
-  </si>
-  <si>
-    <t>NGA = 500</t>
-  </si>
-  <si>
-    <t>NM=250</t>
-  </si>
-  <si>
-    <t>NGA=750</t>
-  </si>
-  <si>
-    <t>NM=750</t>
-  </si>
-  <si>
-    <t>NGA=250</t>
-  </si>
-  <si>
     <t>MEDIAN</t>
   </si>
   <si>
-    <t>NM=500</t>
-  </si>
-  <si>
-    <t>NGA=500</t>
-  </si>
-  <si>
-    <t>NO ELITISM</t>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>ELITISM</t>
   </si>
 </sst>
 </file>
@@ -452,97 +434,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>5.6433216052269897</v>
+      </c>
+      <c r="D2">
+        <v>-0.60988158407606397</v>
+      </c>
+      <c r="E2">
+        <v>3.4593311411695602</v>
+      </c>
+      <c r="G2">
+        <v>0.65676898934399397</v>
+      </c>
+      <c r="H2">
+        <v>0.54681250000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.63457399710899098</v>
+      </c>
+      <c r="K2">
+        <v>0.22696666666666501</v>
+      </c>
+      <c r="L2">
+        <v>-5.2744151722952298E-2</v>
+      </c>
+      <c r="M2">
+        <v>-7.8014783766541104E-3</v>
+      </c>
+      <c r="N2">
+        <v>-8.8749999999999992E-3</v>
+      </c>
+      <c r="O2">
+        <v>-0.177515286102787</v>
+      </c>
+      <c r="P2">
+        <v>0.73914233185631695</v>
+      </c>
+      <c r="Q2">
+        <v>0.55850257239602097</v>
+      </c>
+      <c r="R2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>500</v>
+      </c>
+      <c r="Z2">
+        <v>500</v>
+      </c>
+      <c r="AA2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -550,46 +613,46 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>5.6433216052269897</v>
+        <v>5.9244089838564902</v>
       </c>
       <c r="D3">
-        <v>-0.60988158407606397</v>
+        <v>-0.1636453797638</v>
       </c>
       <c r="E3">
-        <v>3.4593311411695602</v>
+        <v>3.6273015443384802</v>
       </c>
       <c r="G3">
-        <v>0.65676898934399397</v>
+        <v>0.64271346674159502</v>
       </c>
       <c r="H3">
-        <v>0.54681250000000003</v>
+        <v>0.57793749999999999</v>
       </c>
       <c r="I3">
-        <v>0.34350000000000003</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="J3">
-        <v>0.63457399710899098</v>
+        <v>0.67089655897732103</v>
       </c>
       <c r="K3">
-        <v>0.22696666666666501</v>
+        <v>0.29176666666666901</v>
       </c>
       <c r="L3">
-        <v>-5.2744151722952298E-2</v>
+        <v>-1.25237981428971E-2</v>
       </c>
       <c r="M3">
-        <v>-7.8014783766541104E-3</v>
+        <v>-6.3211842589756704E-3</v>
       </c>
       <c r="N3">
-        <v>-8.8749999999999992E-3</v>
+        <v>-7.7499999999999999E-3</v>
       </c>
       <c r="O3">
-        <v>-0.177515286102787</v>
+        <v>-8.0780158730159105E-2</v>
       </c>
       <c r="P3">
-        <v>0.73914233185631695</v>
+        <v>0.73021045502598203</v>
       </c>
       <c r="Q3">
-        <v>0.55850257239602097</v>
+        <v>0.61015203805891705</v>
       </c>
       <c r="R3">
         <v>0.55000000000000004</v>
@@ -612,8 +675,17 @@
       <c r="X3">
         <v>50</v>
       </c>
+      <c r="Y3">
+        <v>500</v>
+      </c>
+      <c r="Z3">
+        <v>500</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -621,46 +693,46 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>5.9244089838564902</v>
+        <v>5.7998607653044401</v>
       </c>
       <c r="D4">
-        <v>-0.1636453797638</v>
+        <v>-0.104188670572173</v>
       </c>
       <c r="E4">
-        <v>3.6273015443384802</v>
+        <v>3.5964613030926502</v>
       </c>
       <c r="G4">
-        <v>0.64271346674159502</v>
+        <v>0.66268234231046197</v>
       </c>
       <c r="H4">
-        <v>0.57793749999999999</v>
+        <v>0.59068750000000003</v>
       </c>
       <c r="I4">
-        <v>0.21099999999999999</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="J4">
-        <v>0.67089655897732103</v>
+        <v>0.68709641022891699</v>
       </c>
       <c r="K4">
-        <v>0.29176666666666901</v>
+        <v>0.39736666666666698</v>
       </c>
       <c r="L4">
-        <v>-1.25237981428971E-2</v>
+        <v>-1.4386844541055E-2</v>
       </c>
       <c r="M4">
-        <v>-6.3211842589756704E-3</v>
+        <v>-7.4014168121230997E-3</v>
       </c>
       <c r="N4">
-        <v>-7.7499999999999999E-3</v>
+        <v>-2.875E-3</v>
       </c>
       <c r="O4">
-        <v>-8.0780158730159105E-2</v>
+        <v>-6.9863900682650901E-2</v>
       </c>
       <c r="P4">
-        <v>0.73021045502598203</v>
+        <v>0.72607418171481297</v>
       </c>
       <c r="Q4">
-        <v>0.61015203805891705</v>
+        <v>0.41458136420764802</v>
       </c>
       <c r="R4">
         <v>0.55000000000000004</v>
@@ -683,8 +755,17 @@
       <c r="X4">
         <v>50</v>
       </c>
+      <c r="Y4">
+        <v>500</v>
+      </c>
+      <c r="Z4">
+        <v>500</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -692,46 +773,46 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>5.7998607653044401</v>
+        <v>5.4575302610382304</v>
       </c>
       <c r="D5">
-        <v>-0.104188670572173</v>
+        <v>-0.27273700498459402</v>
       </c>
       <c r="E5">
-        <v>3.5964613030926502</v>
+        <v>3.3931381675327601</v>
       </c>
       <c r="G5">
-        <v>0.66268234231046197</v>
+        <v>0.62065716262904003</v>
       </c>
       <c r="H5">
-        <v>0.59068750000000003</v>
+        <v>0.4800625</v>
       </c>
       <c r="I5">
-        <v>0.21249999999999999</v>
+        <v>0.3135</v>
       </c>
       <c r="J5">
-        <v>0.68709641022891699</v>
+        <v>0.64386386278540997</v>
       </c>
       <c r="K5">
-        <v>0.39736666666666698</v>
+        <v>0.30420000000000202</v>
       </c>
       <c r="L5">
-        <v>-1.4386844541055E-2</v>
+        <v>-1.17831907208929E-2</v>
       </c>
       <c r="M5">
-        <v>-7.4014168121230997E-3</v>
+        <v>-7.35893083912876E-3</v>
       </c>
       <c r="N5">
-        <v>-2.875E-3</v>
+        <v>-9.75E-3</v>
       </c>
       <c r="O5">
-        <v>-6.9863900682650901E-2</v>
+        <v>-4.3017563686313903E-2</v>
       </c>
       <c r="P5">
-        <v>0.72607418171481297</v>
+        <v>0.72477993864799295</v>
       </c>
       <c r="Q5">
-        <v>0.41458136420764802</v>
+        <v>0.37798438871665102</v>
       </c>
       <c r="R5">
         <v>0.55000000000000004</v>
@@ -754,8 +835,17 @@
       <c r="X5">
         <v>50</v>
       </c>
+      <c r="Y5">
+        <v>500</v>
+      </c>
+      <c r="Z5">
+        <v>500</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -763,46 +853,46 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>5.4575302610382304</v>
+        <v>6.1421125334298798</v>
       </c>
       <c r="D6">
-        <v>-0.27273700498459402</v>
+        <v>0.207472373486494</v>
       </c>
       <c r="E6">
-        <v>3.3931381675327601</v>
+        <v>4.0051700869223303</v>
       </c>
       <c r="G6">
-        <v>0.62065716262904003</v>
+        <v>0.76255769577644705</v>
       </c>
       <c r="H6">
-        <v>0.4800625</v>
+        <v>0.62737500000000002</v>
       </c>
       <c r="I6">
-        <v>0.3135</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="J6">
-        <v>0.64386386278540997</v>
+        <v>0.72381085625835195</v>
       </c>
       <c r="K6">
-        <v>0.30420000000000202</v>
+        <v>0.40183333333333299</v>
       </c>
       <c r="L6">
-        <v>-1.17831907208929E-2</v>
+        <v>-5.4632260793547001E-2</v>
       </c>
       <c r="M6">
-        <v>-7.35893083912876E-3</v>
+        <v>-7.4566709257941899E-3</v>
       </c>
       <c r="N6">
-        <v>-9.75E-3</v>
+        <v>-7.5000000000000002E-4</v>
       </c>
       <c r="O6">
-        <v>-4.3017563686313903E-2</v>
+        <v>-7.4173926420801395E-2</v>
       </c>
       <c r="P6">
-        <v>0.72477993864799295</v>
+        <v>0.7210559911162</v>
       </c>
       <c r="Q6">
-        <v>0.37798438871665102</v>
+        <v>0.575050068578144</v>
       </c>
       <c r="R6">
         <v>0.55000000000000004</v>
@@ -825,8 +915,17 @@
       <c r="X6">
         <v>50</v>
       </c>
+      <c r="Y6">
+        <v>500</v>
+      </c>
+      <c r="Z6">
+        <v>500</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -834,49 +933,49 @@
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>6.1421125334298798</v>
+        <v>5.85798533248607</v>
       </c>
       <c r="D7">
-        <v>0.207472373486494</v>
+        <v>0.19607769305169601</v>
       </c>
       <c r="E7">
-        <v>4.0051700869223303</v>
+        <v>4.9203748037777304</v>
       </c>
       <c r="G7">
-        <v>0.76255769577644705</v>
+        <v>0.62418932768619895</v>
       </c>
       <c r="H7">
-        <v>0.62737500000000002</v>
+        <v>0.81256249999999997</v>
       </c>
       <c r="I7">
-        <v>0.33050000000000002</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="J7">
-        <v>0.72381085625835195</v>
+        <v>0.85123161001327996</v>
       </c>
       <c r="K7">
-        <v>0.40183333333333299</v>
+        <v>0.390166666666661</v>
       </c>
       <c r="L7">
-        <v>-5.4632260793547001E-2</v>
+        <v>-5.0367459521728601E-3</v>
       </c>
       <c r="M7">
-        <v>-7.4566709257941899E-3</v>
+        <v>-2.9944015070256201E-3</v>
       </c>
       <c r="N7">
-        <v>-7.5000000000000002E-4</v>
+        <v>-4.875E-3</v>
       </c>
       <c r="O7">
-        <v>-7.4173926420801395E-2</v>
+        <v>-9.4316378066378005E-4</v>
       </c>
       <c r="P7">
-        <v>0.7210559911162</v>
+        <v>0.74682798400763895</v>
       </c>
       <c r="Q7">
-        <v>0.575050068578144</v>
+        <v>0.83274602664381703</v>
       </c>
       <c r="R7">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -896,16 +995,183 @@
       <c r="X7">
         <v>50</v>
       </c>
+      <c r="Y7">
+        <v>250</v>
+      </c>
+      <c r="Z7">
+        <v>750</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>5.9804195482674496</v>
+      </c>
+      <c r="D8">
+        <v>0.45512333325952198</v>
+      </c>
+      <c r="E8">
+        <v>5.0351413022383502</v>
+      </c>
+      <c r="F8">
+        <v>5.9804195482674496</v>
+      </c>
+      <c r="G8">
+        <v>0.70259139610388999</v>
+      </c>
+      <c r="H8">
+        <v>0.81856249999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.86263414981990805</v>
+      </c>
+      <c r="K8">
+        <v>0.39666666666666101</v>
+      </c>
+      <c r="L8">
+        <v>-1.5310910055617E-3</v>
+      </c>
+      <c r="M8">
+        <v>-2.9314702182035102E-3</v>
+      </c>
+      <c r="N8">
+        <v>-1.75E-3</v>
+      </c>
+      <c r="O8">
+        <v>-3.3465467171717098E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.82445083923139695</v>
+      </c>
+      <c r="Q8">
+        <v>0.80091377881192705</v>
+      </c>
+      <c r="R8">
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+      <c r="W8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8">
+        <v>50</v>
+      </c>
+      <c r="Y8">
+        <v>250</v>
+      </c>
+      <c r="Z8">
+        <v>750</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>5.9818625191241797</v>
+      </c>
+      <c r="D9">
+        <v>0.718601777099384</v>
+      </c>
+      <c r="E9">
+        <v>5.1403917772952203</v>
+      </c>
+      <c r="F9">
+        <v>5.9818625191241797</v>
+      </c>
+      <c r="G9">
+        <v>0.74929667658729004</v>
+      </c>
+      <c r="H9">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.88611300096382795</v>
+      </c>
+      <c r="K9">
+        <v>0.400266666666661</v>
+      </c>
+      <c r="L9">
+        <v>-1.2291989751283599E-3</v>
+      </c>
+      <c r="M9">
+        <v>-3.3469674014668998E-3</v>
+      </c>
+      <c r="N9">
+        <v>-2.5000000000000001E-4</v>
+      </c>
+      <c r="O9">
+        <v>-0.21697568091630701</v>
+      </c>
+      <c r="P9">
+        <v>0.87607875159566495</v>
+      </c>
+      <c r="Q9">
+        <v>0.87093852877469902</v>
+      </c>
+      <c r="R9">
+        <v>0.8</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>1000</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>250</v>
+      </c>
+      <c r="Z9">
+        <v>750</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -913,46 +1179,49 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>5.85798533248607</v>
+        <v>5.8825512613686097</v>
       </c>
       <c r="D10">
-        <v>0.19607769305169601</v>
+        <v>0.53768754882194203</v>
       </c>
       <c r="E10">
-        <v>4.9203748037777304</v>
+        <v>4.9958043149129097</v>
+      </c>
+      <c r="F10">
+        <v>5.8825512613686097</v>
       </c>
       <c r="G10">
-        <v>0.62418932768619895</v>
+        <v>0.73307800047175498</v>
       </c>
       <c r="H10">
-        <v>0.81256249999999997</v>
+        <v>0.84043749999999995</v>
       </c>
       <c r="I10">
-        <v>0.67649999999999999</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="J10">
-        <v>0.85123161001327996</v>
+        <v>0.88656040799865798</v>
       </c>
       <c r="K10">
-        <v>0.390166666666661</v>
+        <v>0.39946666666666097</v>
       </c>
       <c r="L10">
-        <v>-5.0367459521728601E-3</v>
+        <v>-1.8753667569066999E-3</v>
       </c>
       <c r="M10">
-        <v>-2.9944015070256201E-3</v>
+        <v>-2.91254145257136E-3</v>
       </c>
       <c r="N10">
-        <v>-4.875E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="O10">
-        <v>-9.4316378066378005E-4</v>
+        <v>-8.2866691641690304E-2</v>
       </c>
       <c r="P10">
-        <v>0.74682798400763895</v>
+        <v>0.85334687563377998</v>
       </c>
       <c r="Q10">
-        <v>0.83274602664381703</v>
+        <v>0.70756946399329701</v>
       </c>
       <c r="R10">
         <v>0.8</v>
@@ -975,8 +1244,17 @@
       <c r="X10">
         <v>50</v>
       </c>
+      <c r="Y10">
+        <v>250</v>
+      </c>
+      <c r="Z10">
+        <v>750</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -984,49 +1262,49 @@
         <v>-1</v>
       </c>
       <c r="C11">
-        <v>5.9804195482674496</v>
+        <v>5.8874774726607999</v>
       </c>
       <c r="D11">
-        <v>0.45512333325952198</v>
+        <v>0.80721213820373705</v>
       </c>
       <c r="E11">
-        <v>5.0351413022383502</v>
+        <v>5.0394851273724202</v>
       </c>
       <c r="F11">
-        <v>5.9804195482674496</v>
+        <v>5.8874774726607999</v>
       </c>
       <c r="G11">
-        <v>0.70259139610388999</v>
+        <v>0.70167413870850903</v>
       </c>
       <c r="H11">
-        <v>0.81856249999999997</v>
+        <v>0.85475000000000001</v>
       </c>
       <c r="I11">
-        <v>0.66900000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="J11">
-        <v>0.86263414981990805</v>
+        <v>0.895788655972939</v>
       </c>
       <c r="K11">
-        <v>0.39666666666666101</v>
+        <v>0.445466666666675</v>
       </c>
       <c r="L11">
-        <v>-1.5310910055617E-3</v>
+        <v>-2.0462653630651702E-3</v>
       </c>
       <c r="M11">
-        <v>-2.9314702182035102E-3</v>
+        <v>-2.8037605296493402E-3</v>
       </c>
       <c r="N11">
-        <v>-1.75E-3</v>
+        <v>-1.25E-4</v>
       </c>
       <c r="O11">
-        <v>-3.3465467171717098E-2</v>
+        <v>-0.144338045634919</v>
       </c>
       <c r="P11">
-        <v>0.82445083923139695</v>
+        <v>0.83563707534185405</v>
       </c>
       <c r="Q11">
-        <v>0.80091377881192705</v>
+        <v>0.77248166221000503</v>
       </c>
       <c r="R11">
         <v>0.8</v>
@@ -1049,8 +1327,17 @@
       <c r="X11">
         <v>50</v>
       </c>
+      <c r="Y11">
+        <v>250</v>
+      </c>
+      <c r="Z11">
+        <v>750</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>500</v>
       </c>
@@ -1058,52 +1345,49 @@
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>5.9818625191241797</v>
+        <v>6.0952304929999999</v>
       </c>
       <c r="D12">
-        <v>0.718601777099384</v>
+        <v>-0.26109036299999999</v>
       </c>
       <c r="E12">
-        <v>5.1403917772952203</v>
-      </c>
-      <c r="F12">
-        <v>5.9818625191241797</v>
+        <v>2.5966445610000002</v>
       </c>
       <c r="G12">
-        <v>0.74929667658729004</v>
+        <v>0.58828382000000001</v>
       </c>
       <c r="H12">
-        <v>0.84250000000000003</v>
+        <v>0.3394375</v>
       </c>
       <c r="I12">
-        <v>0.73699999999999999</v>
+        <v>-0.214</v>
       </c>
       <c r="J12">
-        <v>0.88611300096382795</v>
+        <v>0.498195938</v>
       </c>
       <c r="K12">
-        <v>0.400266666666661</v>
+        <v>0.26150000000000001</v>
       </c>
       <c r="L12">
-        <v>-1.2291989751283599E-3</v>
+        <v>-3.8162992999999999E-2</v>
       </c>
       <c r="M12">
-        <v>-3.3469674014668998E-3</v>
+        <v>-1.1185992000000001E-2</v>
       </c>
       <c r="N12">
-        <v>-2.5000000000000001E-4</v>
+        <v>-8.6250000000000007E-3</v>
       </c>
       <c r="O12">
-        <v>-0.21697568091630701</v>
+        <v>-1.0540933000000001E-2</v>
       </c>
       <c r="P12">
-        <v>0.87607875159566495</v>
+        <v>0.59832721200000005</v>
       </c>
       <c r="Q12">
-        <v>0.87093852877469902</v>
+        <v>0.59341500800000002</v>
       </c>
       <c r="R12">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="S12">
         <v>8</v>
@@ -1123,8 +1407,17 @@
       <c r="X12">
         <v>50</v>
       </c>
+      <c r="Y12">
+        <v>750</v>
+      </c>
+      <c r="Z12">
+        <v>250</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -1132,52 +1425,49 @@
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>5.8825512613686097</v>
+        <v>5.4185532480000003</v>
       </c>
       <c r="D13">
-        <v>0.53768754882194203</v>
+        <v>-0.47235238499999999</v>
       </c>
       <c r="E13">
-        <v>4.9958043149129097</v>
-      </c>
-      <c r="F13">
-        <v>5.8825512613686097</v>
+        <v>2.066098233</v>
       </c>
       <c r="G13">
-        <v>0.73307800047175498</v>
+        <v>0.64857943699999998</v>
       </c>
       <c r="H13">
-        <v>0.84043749999999995</v>
+        <v>0.33337499999999998</v>
       </c>
       <c r="I13">
-        <v>0.66349999999999998</v>
+        <v>-0.224</v>
       </c>
       <c r="J13">
-        <v>0.88656040799865798</v>
+        <v>0.48696394999999998</v>
       </c>
       <c r="K13">
-        <v>0.39946666666666097</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="L13">
-        <v>-1.8753667569066999E-3</v>
+        <v>-3.6434656000000003E-2</v>
       </c>
       <c r="M13">
-        <v>-2.91254145257136E-3</v>
+        <v>-1.2486548E-2</v>
       </c>
       <c r="N13">
-        <v>-5.0000000000000001E-4</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="O13">
-        <v>-8.2866691641690304E-2</v>
+        <v>-0.13872194700000001</v>
       </c>
       <c r="P13">
-        <v>0.85334687563377998</v>
+        <v>0.57924683899999996</v>
       </c>
       <c r="Q13">
-        <v>0.70756946399329701</v>
+        <v>0.29397615799999999</v>
       </c>
       <c r="R13">
-        <v>0.8</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="S13">
         <v>8</v>
@@ -1197,16 +1487,257 @@
       <c r="X13">
         <v>50</v>
       </c>
+      <c r="Y13">
+        <v>750</v>
+      </c>
+      <c r="Z13">
+        <v>250</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>5.7770129639999999</v>
+      </c>
+      <c r="D14">
+        <v>-0.78305884800000003</v>
+      </c>
+      <c r="E14">
+        <v>2.0345081550000002</v>
+      </c>
+      <c r="G14">
+        <v>0.56409726100000002</v>
+      </c>
+      <c r="H14">
+        <v>0.24174999999999999</v>
+      </c>
+      <c r="I14">
+        <v>-0.156</v>
+      </c>
+      <c r="J14">
+        <v>0.39063156199999999</v>
+      </c>
+      <c r="K14">
+        <v>0.17496666699999999</v>
+      </c>
+      <c r="L14">
+        <v>-7.6869046999999996E-2</v>
+      </c>
+      <c r="M14">
+        <v>-1.1643829E-2</v>
+      </c>
+      <c r="N14">
+        <v>-1.325E-2</v>
+      </c>
+      <c r="O14">
+        <v>-8.5837897999999996E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.58355300899999996</v>
+      </c>
+      <c r="Q14">
+        <v>0.42311042999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>1000</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14">
+        <v>50</v>
+      </c>
+      <c r="Y14">
+        <v>750</v>
+      </c>
+      <c r="Z14">
+        <v>250</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>5.3959954239999997</v>
+      </c>
+      <c r="D15">
+        <v>-0.45117182500000003</v>
+      </c>
+      <c r="E15">
+        <v>2.0761217940000001</v>
+      </c>
+      <c r="G15">
+        <v>0.61055941700000005</v>
+      </c>
+      <c r="H15">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="I15">
+        <v>-0.16750000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.48048086000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.17953333299999999</v>
+      </c>
+      <c r="L15">
+        <v>-5.6066250999999998E-2</v>
+      </c>
+      <c r="M15">
+        <v>-1.2098167E-2</v>
+      </c>
+      <c r="N15">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="O15">
+        <v>-0.11392551200000001</v>
+      </c>
+      <c r="P15">
+        <v>0.57311216499999995</v>
+      </c>
+      <c r="Q15">
+        <v>0.27002594800000002</v>
+      </c>
+      <c r="R15">
+        <v>0.3</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>1000</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+      <c r="W15" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15">
+        <v>50</v>
+      </c>
+      <c r="Y15">
+        <v>750</v>
+      </c>
+      <c r="Z15">
+        <v>250</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>5.687168142</v>
+      </c>
+      <c r="D16">
+        <v>-0.582377688</v>
+      </c>
+      <c r="E16">
+        <v>2.3910279050000001</v>
+      </c>
+      <c r="G16">
+        <v>0.57403479899999998</v>
+      </c>
+      <c r="H16">
+        <v>0.27131250000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1105</v>
+      </c>
+      <c r="J16">
+        <v>0.42760871900000003</v>
+      </c>
+      <c r="K16">
+        <v>0.13446666700000001</v>
+      </c>
+      <c r="L16">
+        <v>-4.0619479E-2</v>
+      </c>
+      <c r="M16">
+        <v>-3.2496240000000003E-2</v>
+      </c>
+      <c r="N16">
+        <v>-1.4250000000000001E-2</v>
+      </c>
+      <c r="O16">
+        <v>-0.118215792</v>
+      </c>
+      <c r="P16">
+        <v>0.59142041899999998</v>
+      </c>
+      <c r="Q16">
+        <v>0.48726631300000001</v>
+      </c>
+      <c r="R16">
+        <v>0.3</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>1000</v>
+      </c>
+      <c r="V16">
+        <v>50</v>
+      </c>
+      <c r="W16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16">
+        <v>50</v>
+      </c>
+      <c r="Y16">
+        <v>750</v>
+      </c>
+      <c r="Z16">
+        <v>250</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1214,49 +1745,49 @@
         <v>-1</v>
       </c>
       <c r="C17">
-        <v>6.0952304929999999</v>
+        <v>6.12959003413118</v>
       </c>
       <c r="D17">
-        <v>-0.26109036299999999</v>
+        <v>-1.2734892867013601</v>
       </c>
       <c r="E17">
-        <v>2.5966445610000002</v>
+        <v>3.36715443091932</v>
       </c>
       <c r="G17">
-        <v>0.58828382000000001</v>
+        <v>0.64343830266955504</v>
       </c>
       <c r="H17">
-        <v>0.3394375</v>
+        <v>0.49393749999999997</v>
       </c>
       <c r="I17">
-        <v>-0.214</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="J17">
-        <v>0.498195938</v>
+        <v>0.58847336610468204</v>
       </c>
       <c r="K17">
-        <v>0.26150000000000001</v>
+        <v>0.37196666666667</v>
       </c>
       <c r="L17">
-        <v>-3.8162992999999999E-2</v>
+        <v>-2.00373915889226E-2</v>
       </c>
       <c r="M17">
-        <v>-1.1185992000000001E-2</v>
+        <v>-1.9192169637280002E-2</v>
       </c>
       <c r="N17">
-        <v>-8.6250000000000007E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="O17">
-        <v>-1.0540933000000001E-2</v>
+        <v>-7.1001316738817002E-2</v>
       </c>
       <c r="P17">
-        <v>0.59832721200000005</v>
+        <v>0.67827091331968903</v>
       </c>
       <c r="Q17">
-        <v>0.59341500800000002</v>
+        <v>0.56879856012374896</v>
       </c>
       <c r="R17">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -1276,8 +1807,17 @@
       <c r="X17">
         <v>50</v>
       </c>
+      <c r="Y17">
+        <v>500</v>
+      </c>
+      <c r="Z17">
+        <v>500</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>500</v>
       </c>
@@ -1285,49 +1825,52 @@
         <v>-1</v>
       </c>
       <c r="C18">
-        <v>5.4185532480000003</v>
+        <v>5.9368751939664204</v>
       </c>
       <c r="D18">
-        <v>-0.47235238499999999</v>
+        <v>-0.50053471344718103</v>
       </c>
       <c r="E18">
-        <v>2.066098233</v>
+        <v>4.6765649877614104</v>
+      </c>
+      <c r="F18">
+        <v>5.9368751939664204</v>
       </c>
       <c r="G18">
-        <v>0.64857943699999998</v>
+        <v>0.71011183261182798</v>
       </c>
       <c r="H18">
-        <v>0.33337499999999998</v>
+        <v>0.77556250000000004</v>
       </c>
       <c r="I18">
-        <v>-0.224</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="J18">
-        <v>0.48696394999999998</v>
+        <v>0.82495051190639401</v>
       </c>
       <c r="K18">
-        <v>0.14810000000000001</v>
+        <v>0.36919999999999698</v>
       </c>
       <c r="L18">
-        <v>-3.6434656000000003E-2</v>
+        <v>-1.97600513499803E-3</v>
       </c>
       <c r="M18">
-        <v>-1.2486548E-2</v>
+        <v>-2.0364161822207998E-2</v>
       </c>
       <c r="N18">
-        <v>-1.2500000000000001E-2</v>
+        <v>-5.1250000000000002E-3</v>
       </c>
       <c r="O18">
-        <v>-0.13872194700000001</v>
+        <v>-3.5658346861471603E-2</v>
       </c>
       <c r="P18">
-        <v>0.57924683899999996</v>
+        <v>0.79133948775993701</v>
       </c>
       <c r="Q18">
-        <v>0.29397615799999999</v>
+        <v>0.75102416930194105</v>
       </c>
       <c r="R18">
-        <v>0.29099999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="S18">
         <v>8</v>
@@ -1347,8 +1890,17 @@
       <c r="X18">
         <v>50</v>
       </c>
+      <c r="Y18">
+        <v>500</v>
+      </c>
+      <c r="Z18">
+        <v>500</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>500</v>
       </c>
@@ -1356,49 +1908,52 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>5.7770129639999999</v>
+        <v>5.8577522232367203</v>
       </c>
       <c r="D19">
-        <v>-0.78305884800000003</v>
+        <v>-0.51408145693614804</v>
       </c>
       <c r="E19">
-        <v>2.0345081550000002</v>
+        <v>4.6612612331131897</v>
+      </c>
+      <c r="F19">
+        <v>5.8577522232367203</v>
       </c>
       <c r="G19">
-        <v>0.56409726100000002</v>
+        <v>0.72781690115440301</v>
       </c>
       <c r="H19">
-        <v>0.24174999999999999</v>
+        <v>0.77212499999999995</v>
       </c>
       <c r="I19">
-        <v>-0.156</v>
+        <v>0.5625</v>
       </c>
       <c r="J19">
-        <v>0.39063156199999999</v>
+        <v>0.83063948070912497</v>
       </c>
       <c r="K19">
-        <v>0.17496666699999999</v>
+        <v>0.48270000000000501</v>
       </c>
       <c r="L19">
-        <v>-7.6869046999999996E-2</v>
+        <v>-2.19485669935475E-2</v>
       </c>
       <c r="M19">
-        <v>-1.1643829E-2</v>
+        <v>-4.1621547601156097E-3</v>
       </c>
       <c r="N19">
-        <v>-1.325E-2</v>
+        <v>-2.875E-3</v>
       </c>
       <c r="O19">
-        <v>-8.5837897999999996E-2</v>
+        <v>-1.6760416666666601E-3</v>
       </c>
       <c r="P19">
-        <v>0.58355300899999996</v>
+        <v>0.83031664822408502</v>
       </c>
       <c r="Q19">
-        <v>0.42311042999999998</v>
+        <v>0.48582496644592699</v>
       </c>
       <c r="R19">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="S19">
         <v>8</v>
@@ -1418,8 +1973,17 @@
       <c r="X19">
         <v>50</v>
       </c>
+      <c r="Y19">
+        <v>500</v>
+      </c>
+      <c r="Z19">
+        <v>500</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>500</v>
       </c>
@@ -1427,49 +1991,52 @@
         <v>-1</v>
       </c>
       <c r="C20">
-        <v>5.3959954239999997</v>
+        <v>6.0801756951663997</v>
       </c>
       <c r="D20">
-        <v>-0.45117182500000003</v>
+        <v>-0.261810078895992</v>
       </c>
       <c r="E20">
-        <v>2.0761217940000001</v>
+        <v>4.9147367841153704</v>
+      </c>
+      <c r="F20">
+        <v>6.0801756951663997</v>
       </c>
       <c r="G20">
-        <v>0.61055941700000005</v>
+        <v>0.79295381250693597</v>
       </c>
       <c r="H20">
-        <v>0.31950000000000001</v>
+        <v>0.79243750000000002</v>
       </c>
       <c r="I20">
-        <v>-0.16750000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="J20">
-        <v>0.48048086000000001</v>
+        <v>0.85555418447651399</v>
       </c>
       <c r="K20">
-        <v>0.17953333299999999</v>
+        <v>0.42620000000000702</v>
       </c>
       <c r="L20">
-        <v>-5.6066250999999998E-2</v>
+        <v>-2.2692146237454601E-3</v>
       </c>
       <c r="M20">
-        <v>-1.2098167E-2</v>
+        <v>-2.1935957885762698E-2</v>
       </c>
       <c r="N20">
-        <v>-7.4999999999999997E-3</v>
+        <v>-3.7500000000000001E-4</v>
       </c>
       <c r="O20">
-        <v>-0.11392551200000001</v>
+        <v>-3.4697650613275503E-2</v>
       </c>
       <c r="P20">
-        <v>0.57311216499999995</v>
+        <v>0.78622152829671699</v>
       </c>
       <c r="Q20">
-        <v>0.27002594800000002</v>
+        <v>0.73964758195800495</v>
       </c>
       <c r="R20">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -1489,8 +2056,17 @@
       <c r="X20">
         <v>50</v>
       </c>
+      <c r="Y20">
+        <v>500</v>
+      </c>
+      <c r="Z20">
+        <v>500</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>500</v>
       </c>
@@ -1498,49 +2074,52 @@
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>5.687168142</v>
+        <v>6.2034686091872899</v>
       </c>
       <c r="D21">
-        <v>-0.582377688</v>
+        <v>-0.44287524317323002</v>
       </c>
       <c r="E21">
-        <v>2.3910279050000001</v>
+        <v>4.9449153256120804</v>
+      </c>
+      <c r="F21">
+        <v>6.2034686091872899</v>
       </c>
       <c r="G21">
-        <v>0.57403479899999998</v>
+        <v>0.73404362130923695</v>
       </c>
       <c r="H21">
-        <v>0.27131250000000001</v>
+        <v>0.77362500000000001</v>
       </c>
       <c r="I21">
-        <v>0.1105</v>
+        <v>0.5675</v>
       </c>
       <c r="J21">
-        <v>0.42760871900000003</v>
+        <v>0.834662738250741</v>
       </c>
       <c r="K21">
-        <v>0.13446666700000001</v>
+        <v>0.50746666666666296</v>
       </c>
       <c r="L21">
-        <v>-4.0619479E-2</v>
+        <v>-1.67748370879745E-3</v>
       </c>
       <c r="M21">
-        <v>-3.2496240000000003E-2</v>
+        <v>-4.28929661545383E-3</v>
       </c>
       <c r="N21">
-        <v>-1.4250000000000001E-2</v>
+        <v>-5.6249999999999998E-3</v>
       </c>
       <c r="O21">
-        <v>-0.118215792</v>
+        <v>-2.5755997474747401E-3</v>
       </c>
       <c r="P21">
-        <v>0.59142041899999998</v>
+        <v>0.84314852819479902</v>
       </c>
       <c r="Q21">
-        <v>0.48726631300000001</v>
+        <v>0.69863615126229806</v>
       </c>
       <c r="R21">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="S21">
         <v>8</v>
@@ -1560,19 +2139,183 @@
       <c r="X21">
         <v>50</v>
       </c>
+      <c r="Y21">
+        <v>500</v>
+      </c>
+      <c r="Z21">
+        <v>500</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>6.0328618360798201</v>
+      </c>
+      <c r="D22">
+        <v>-6.1684025897625901E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.9725062352952198</v>
+      </c>
+      <c r="F22">
+        <v>6.0328618360798201</v>
+      </c>
+      <c r="G22">
+        <v>0.83681799693362102</v>
+      </c>
+      <c r="H22">
+        <v>0.80056249999999995</v>
+      </c>
+      <c r="I22">
+        <v>0.6835</v>
+      </c>
+      <c r="J22">
+        <v>0.85070411844562399</v>
+      </c>
+      <c r="K22">
+        <v>0.40633333333333499</v>
+      </c>
+      <c r="L22">
+        <v>-2.4476009168571699E-3</v>
+      </c>
+      <c r="M22">
+        <v>-3.9825429457806096E-3</v>
+      </c>
+      <c r="N22">
+        <v>-4.2500000000000003E-3</v>
+      </c>
+      <c r="O22">
+        <v>-0.17008124549062001</v>
+      </c>
+      <c r="P22">
+        <v>0.75596021788809198</v>
+      </c>
+      <c r="Q22">
+        <v>0.81938945804778796</v>
+      </c>
+      <c r="R22">
+        <v>0.75</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>1000</v>
+      </c>
+      <c r="V22">
+        <v>50</v>
+      </c>
+      <c r="W22" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22">
+        <v>50</v>
+      </c>
+      <c r="Y22">
+        <v>500</v>
+      </c>
+      <c r="Z22">
+        <v>500</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>6.1323793057953502</v>
+      </c>
+      <c r="D23">
+        <v>-0.35677334932692101</v>
+      </c>
+      <c r="E23">
+        <v>5.0157563470695798</v>
+      </c>
+      <c r="F23">
+        <v>6.1323793057953502</v>
+      </c>
+      <c r="G23">
+        <v>0.79857942370129298</v>
+      </c>
+      <c r="H23">
+        <v>0.79525000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.629</v>
+      </c>
+      <c r="J23">
+        <v>0.85060938841859701</v>
+      </c>
+      <c r="K23">
+        <v>0.48673333333334001</v>
+      </c>
+      <c r="L23">
+        <v>-1.9320772677523101E-3</v>
+      </c>
+      <c r="M23">
+        <v>-3.8584293925634301E-3</v>
+      </c>
+      <c r="N23">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="O23">
+        <v>-0.22385462211399501</v>
+      </c>
+      <c r="P23">
+        <v>0.83768510495502302</v>
+      </c>
+      <c r="Q23">
+        <v>0.84804422543560498</v>
+      </c>
+      <c r="R23">
+        <v>0.75</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="V23">
+        <v>50</v>
+      </c>
+      <c r="W23" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>500</v>
+      </c>
+      <c r="Z23">
+        <v>500</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>500</v>
       </c>
@@ -1580,49 +2323,52 @@
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>6.12959003413118</v>
+        <v>5.7550753152787397</v>
       </c>
       <c r="D24">
-        <v>-1.2734892867013601</v>
+        <v>-0.53654178624284299</v>
       </c>
       <c r="E24">
-        <v>3.36715443091932</v>
+        <v>4.5501600516023197</v>
+      </c>
+      <c r="F24">
+        <v>5.7550753152787397</v>
       </c>
       <c r="G24">
-        <v>0.64343830266955504</v>
+        <v>0.67801792339604605</v>
       </c>
       <c r="H24">
-        <v>0.49393749999999997</v>
+        <v>0.76724999999999999</v>
       </c>
       <c r="I24">
-        <v>0.14349999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="J24">
-        <v>0.58847336610468204</v>
+        <v>0.82226523720732303</v>
       </c>
       <c r="K24">
-        <v>0.37196666666667</v>
+        <v>0.47656666666667302</v>
       </c>
       <c r="L24">
-        <v>-2.00373915889226E-2</v>
+        <v>-1.9749662235019499E-3</v>
       </c>
       <c r="M24">
-        <v>-1.9192169637280002E-2</v>
+        <v>-4.3915623432461996E-3</v>
       </c>
       <c r="N24">
-        <v>-1.0999999999999999E-2</v>
+        <v>-4.6249999999999998E-3</v>
       </c>
       <c r="O24">
-        <v>-7.1001316738817002E-2</v>
+        <v>-2.4711268939394002E-2</v>
       </c>
       <c r="P24">
-        <v>0.67827091331968903</v>
+        <v>0.83025804104472301</v>
       </c>
       <c r="Q24">
-        <v>0.56879856012374896</v>
+        <v>0.45250498079373702</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -1642,8 +2388,17 @@
       <c r="X24">
         <v>50</v>
       </c>
+      <c r="Y24">
+        <v>500</v>
+      </c>
+      <c r="Z24">
+        <v>500</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>500</v>
       </c>
@@ -1651,52 +2406,52 @@
         <v>-1</v>
       </c>
       <c r="C25">
-        <v>5.9368751939664204</v>
+        <v>6.18015774481756</v>
       </c>
       <c r="D25">
-        <v>-0.50053471344718103</v>
+        <v>-0.12856011039259099</v>
       </c>
       <c r="E25">
-        <v>4.6765649877614104</v>
+        <v>4.9643129778452799</v>
       </c>
       <c r="F25">
-        <v>5.9368751939664204</v>
+        <v>6.18015774481756</v>
       </c>
       <c r="G25">
-        <v>0.71011183261182798</v>
+        <v>0.71261502351814998</v>
       </c>
       <c r="H25">
-        <v>0.77556250000000004</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="I25">
-        <v>0.51749999999999996</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="J25">
-        <v>0.82495051190639401</v>
+        <v>0.838743961404951</v>
       </c>
       <c r="K25">
-        <v>0.36919999999999698</v>
+        <v>0.58070000000000699</v>
       </c>
       <c r="L25">
-        <v>-1.97600513499803E-3</v>
+        <v>-4.9296193842286798E-2</v>
       </c>
       <c r="M25">
-        <v>-2.0364161822207998E-2</v>
+        <v>-3.9690249093966403E-3</v>
       </c>
       <c r="N25">
-        <v>-5.1250000000000002E-3</v>
+        <v>-1.25E-4</v>
       </c>
       <c r="O25">
-        <v>-3.5658346861471603E-2</v>
+        <v>-3.5621000527250499E-3</v>
       </c>
       <c r="P25">
-        <v>0.79133948775993701</v>
+        <v>0.78511297817194203</v>
       </c>
       <c r="Q25">
-        <v>0.75102416930194105</v>
+        <v>0.743593333554603</v>
       </c>
       <c r="R25">
-        <v>0.72099999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -1715,6 +2470,15 @@
       </c>
       <c r="X25">
         <v>50</v>
+      </c>
+      <c r="Y25">
+        <v>500</v>
+      </c>
+      <c r="Z25">
+        <v>500</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
